--- a/Aluguel/devolucoes/devol.xlsx
+++ b/Aluguel/devolucoes/devol.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44588</v>
+        <v>44596</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -513,7 +513,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SANTANDER CCVM S/A</t>
+          <t>BTG PACTUAL CTVM S/A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44630</v>
+        <v>44638</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0051</v>
+        <v>0.0044</v>
       </c>
       <c r="H2" t="n">
-        <v>15.11</v>
+        <v>14.48</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -542,14 +542,14 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2022012700327218240001-1</t>
+          <t>2022020400328787730001-1</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>-9568</v>
+        <v>-12000</v>
       </c>
       <c r="M2" t="n">
-        <v>-9568</v>
+        <v>-12000</v>
       </c>
     </row>
     <row r="3">
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44588</v>
+        <v>44606</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SANTANDER CCVM S/A</t>
+          <t>UBS BRASIL CCTVM S/A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -575,13 +575,13 @@
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44630</v>
+        <v>44648</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0051</v>
+        <v>0.0036</v>
       </c>
       <c r="H3" t="n">
-        <v>15.11</v>
+        <v>14.94</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -595,14 +595,14 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2022012700327218260001-1</t>
+          <t>2022021400330422640001-1</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>-976</v>
+        <v>-11700</v>
       </c>
       <c r="M3" t="n">
-        <v>-976</v>
+        <v>-9800</v>
       </c>
     </row>
     <row r="4">
@@ -610,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44593</v>
+        <v>44573</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -619,7 +619,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CM CAPITAL MARKETS CCTVM LTDA</t>
+          <t>MIRAE ASSET WEALTH MANAGEMENT (BRASIL) CCTVM LTDA.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -628,13 +628,13 @@
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44635</v>
+        <v>44613</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0044</v>
+        <v>0.0058</v>
       </c>
       <c r="H4" t="n">
-        <v>14.98</v>
+        <v>32.44</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -643,27 +643,27 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>ABEV3</t>
+          <t>ALPA4</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2022020100328094840001-1</t>
+          <t>2022011200324444600001-1</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>-102900</v>
+        <v>-821</v>
       </c>
       <c r="M4" t="n">
-        <v>-12356</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44592</v>
+        <v>44606</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CM CAPITAL MARKETS CCTVM LTDA</t>
+          <t>UBS BRASIL CCTVM S/A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -681,13 +681,13 @@
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44634</v>
+        <v>44648</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0024</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>22.43</v>
+        <v>12.46</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -696,27 +696,27 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>BBSE3</t>
+          <t>ASAI3</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2022013100327729090001-1</t>
+          <t>2022021400330422660001-1</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>-1846</v>
+        <v>-7935</v>
       </c>
       <c r="M5" t="n">
-        <v>-1846</v>
+        <v>-4000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44592</v>
+        <v>44596</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -725,7 +725,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CM CAPITAL MARKETS CCTVM LTDA</t>
+          <t>SANTANDER CCVM S/A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44634</v>
+        <v>44638</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0024</v>
+        <v>0.0004</v>
       </c>
       <c r="H6" t="n">
-        <v>22.43</v>
+        <v>14.16</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -749,27 +749,27 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>BBSE3</t>
+          <t>B3SA3</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2022013100327729130001-1</t>
+          <t>2022020400328764890001-1</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>-6354</v>
+        <v>-3580</v>
       </c>
       <c r="M6" t="n">
-        <v>-1654</v>
+        <v>-3580</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44582</v>
+        <v>44606</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ORAMA DTVM S A</t>
+          <t>UBS BRASIL CCTVM S/A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44624</v>
+        <v>44648</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0531</v>
+        <v>0.0028</v>
       </c>
       <c r="H7" t="n">
-        <v>11.77</v>
+        <v>33.27</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -802,27 +802,27 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>CCRO3</t>
+          <t>BBAS3</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2022012100320147180001-2</t>
+          <t>2022021400330422850001-1</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>-100</v>
+        <v>-14118</v>
       </c>
       <c r="M7" t="n">
-        <v>-100</v>
+        <v>-7100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44579</v>
+        <v>44585</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MIRAE ASSET WEALTH MANAGEMENT (BRASIL) CCTVM LTDA.</t>
+          <t>UBS BRASIL CCTVM S/A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -840,13 +840,13 @@
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44617</v>
+        <v>44627</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0519</v>
+        <v>0.0012</v>
       </c>
       <c r="H8" t="n">
-        <v>11.28</v>
+        <v>17.54</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -855,27 +855,27 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>CCRO3</t>
+          <t>BBDC3</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2022011800325404520001-1</t>
+          <t>2022012400326416740001-1</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>-9400</v>
+        <v>-1800</v>
       </c>
       <c r="M8" t="n">
-        <v>-5800</v>
+        <v>-1800</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44596</v>
+        <v>44602</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SANTANDER CCVM S/A</t>
+          <t>CM CAPITAL MARKETS CCTVM LTDA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44629</v>
+        <v>44644</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0064</v>
+        <v>0.0012</v>
       </c>
       <c r="H9" t="n">
-        <v>2.28</v>
+        <v>17.43</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -908,27 +908,27 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>CIEL3</t>
+          <t>BBDC3</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2022020400328876210001-1</t>
+          <t>2022021000329992300001-1</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>-51685</v>
+        <v>-4800</v>
       </c>
       <c r="M9" t="n">
-        <v>-6100</v>
+        <v>-4800</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44589</v>
+        <v>44606</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MIRAE ASSET WEALTH MANAGEMENT (BRASIL) CCTVM LTDA.</t>
+          <t>UBS BRASIL CCTVM S/A</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -946,13 +946,13 @@
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44622</v>
+        <v>44648</v>
       </c>
       <c r="G10" t="n">
-        <v>0.13</v>
+        <v>0.0011</v>
       </c>
       <c r="H10" t="n">
-        <v>7.15</v>
+        <v>17.59</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -961,24 +961,24 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>CMIN3</t>
+          <t>BBDC3</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2022012800327618740001-1</t>
+          <t>2022021400330422670001-1</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>-21500</v>
+        <v>-7513</v>
       </c>
       <c r="M10" t="n">
-        <v>-5900</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>44594</v>
@@ -990,7 +990,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SANTANDER CCVM S/A</t>
+          <t>UBS BRASIL CCTVM S/A</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1002,10 +1002,10 @@
         <v>44636</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0034</v>
+        <v>0.0008</v>
       </c>
       <c r="H11" t="n">
-        <v>25.13</v>
+        <v>22.89</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1014,27 +1014,27 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>ITUB4</t>
+          <t>BBDC4</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2022020200328244370001-1</t>
+          <t>2022020200328206750001-1</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>-9300</v>
+        <v>-38433</v>
       </c>
       <c r="M11" t="n">
-        <v>-9300</v>
+        <v>-23400</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44585</v>
+        <v>44594</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1052,13 +1052,13 @@
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44627</v>
+        <v>44636</v>
       </c>
       <c r="G12" t="n">
-        <v>0.003</v>
+        <v>0.0023</v>
       </c>
       <c r="H12" t="n">
-        <v>23.37</v>
+        <v>23.11</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1067,27 +1067,27 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>ITUB4</t>
+          <t>BBSE3</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2022012400326416820001-1</t>
+          <t>2022020200328206630001-1</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>-40779</v>
+        <v>-4600</v>
       </c>
       <c r="M12" t="n">
-        <v>-15800</v>
+        <v>-3400</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1105,13 +1105,13 @@
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44636</v>
+        <v>44635</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0173</v>
+        <v>0.2612</v>
       </c>
       <c r="H13" t="n">
-        <v>9.82</v>
+        <v>10.64</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1120,27 +1120,27 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>LWSA3</t>
+          <t>BPAN4</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2022020200328195650001-1</t>
+          <t>2022020100321974030001-2</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>-6300</v>
+        <v>-4600</v>
       </c>
       <c r="M13" t="n">
-        <v>-2300</v>
+        <v>-1700</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44588</v>
+        <v>44594</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MIRAE ASSET WEALTH MANAGEMENT (BRASIL) CCTVM LTDA.</t>
+          <t>BTG PACTUAL CTVM S/A</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1158,13 +1158,13 @@
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0126</v>
+        <v>0.07149999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>6.91</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1173,27 +1173,27 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>MGLU3</t>
+          <t>BRML3</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2022012700327378990001-1</t>
+          <t>2022020200328223230001-1</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>-4</v>
+        <v>-457</v>
       </c>
       <c r="M14" t="n">
-        <v>-4</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>44588</v>
+        <v>44601</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MIRAE ASSET WEALTH MANAGEMENT (BRASIL) CCTVM LTDA.</t>
+          <t>CM CAPITAL MARKETS CCTVM LTDA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44630</v>
+        <v>44643</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0126</v>
+        <v>0.045</v>
       </c>
       <c r="H15" t="n">
-        <v>6.91</v>
+        <v>9.31</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1226,27 +1226,27 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>MGLU3</t>
+          <t>BRML3</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2022012700327379000001-1</t>
+          <t>2022020900328024500001-2</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>-1</v>
+        <v>-2400</v>
       </c>
       <c r="M15" t="n">
-        <v>-1</v>
+        <v>-2400</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44592</v>
+        <v>44601</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1264,13 +1264,13 @@
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44634</v>
+        <v>44643</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0127</v>
+        <v>0.045</v>
       </c>
       <c r="H16" t="n">
-        <v>6.83</v>
+        <v>9.31</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1279,27 +1279,27 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>MGLU3</t>
+          <t>BRML3</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2022013100327729170001-1</t>
+          <t>2022020900328024510001-2</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>-12702</v>
+        <v>-2700</v>
       </c>
       <c r="M16" t="n">
-        <v>-12702</v>
+        <v>-1343</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>44592</v>
+        <v>44579</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CM CAPITAL MARKETS CCTVM LTDA</t>
+          <t>MIRAE ASSET WEALTH MANAGEMENT (BRASIL) CCTVM LTDA.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1317,13 +1317,13 @@
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44634</v>
+        <v>44617</v>
       </c>
       <c r="G17" t="n">
-        <v>0.012</v>
+        <v>0.0519</v>
       </c>
       <c r="H17" t="n">
-        <v>6.83</v>
+        <v>11.28</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1332,27 +1332,27 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>MGLU3</t>
+          <t>CCRO3</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2022013100327809070001-1</t>
+          <t>2022011800325404520001-1</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>-2630</v>
+        <v>-1300</v>
       </c>
       <c r="M17" t="n">
-        <v>-2593</v>
+        <v>-1300</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>44592</v>
+        <v>44580</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CM CAPITAL MARKETS CCTVM LTDA</t>
+          <t>MIRAE ASSET WEALTH MANAGEMENT (BRASIL) CCTVM LTDA.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1370,13 +1370,13 @@
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44634</v>
+        <v>44622</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0004</v>
+        <v>0.0519</v>
       </c>
       <c r="H18" t="n">
-        <v>33.24</v>
+        <v>11.25</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1385,27 +1385,27 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>PETR4</t>
+          <t>CCRO3</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2022013100327729240001-1</t>
+          <t>2022011900325695860001-1</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>-100000</v>
+        <v>-800</v>
       </c>
       <c r="M18" t="n">
-        <v>-24100</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>44594</v>
+        <v>44599</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>BTG PACTUAL CTVM S/A</t>
+          <t>CM CAPITAL MARKETS CCTVM LTDA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44636</v>
+        <v>44641</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0178</v>
+        <v>0.032</v>
       </c>
       <c r="H19" t="n">
-        <v>32.81</v>
+        <v>12.38</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1438,27 +1438,27 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>SANB11</t>
+          <t>CCRO3</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2022020200328154730001-1</t>
+          <t>2022020700329217540001-1</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>-13562</v>
+        <v>-8789</v>
       </c>
       <c r="M19" t="n">
-        <v>-1900</v>
+        <v>-3500</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>44594</v>
+        <v>44596</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MIRAE ASSET WEALTH MANAGEMENT (BRASIL) CCTVM LTDA.</t>
+          <t>SANTANDER CCVM S/A</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1476,13 +1476,13 @@
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44636</v>
+        <v>44629</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0028</v>
+        <v>0.0064</v>
       </c>
       <c r="H20" t="n">
-        <v>37.25</v>
+        <v>2.28</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1491,27 +1491,27 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>SBSP3</t>
+          <t>CIEL3</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2022020200328368000001-1</t>
+          <t>2022020400328876210001-1</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>-36</v>
+        <v>-25585</v>
       </c>
       <c r="M20" t="n">
-        <v>-36</v>
+        <v>-5700</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>44594</v>
+        <v>44587</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MIRAE ASSET WEALTH MANAGEMENT (BRASIL) CCTVM LTDA.</t>
+          <t>UBS BRASIL CCTVM S/A</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1529,13 +1529,13 @@
         </is>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44636</v>
+        <v>44629</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0028</v>
+        <v>0.0732</v>
       </c>
       <c r="H21" t="n">
-        <v>37.25</v>
+        <v>2.42</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1544,27 +1544,27 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>SBSP3</t>
+          <t>COGN3</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2022020200328368010001-1</t>
+          <t>2022012600326934070001-1</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>-801</v>
+        <v>-4800</v>
       </c>
       <c r="M21" t="n">
-        <v>-801</v>
+        <v>-4800</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44594</v>
+        <v>44606</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MIRAE ASSET WEALTH MANAGEMENT (BRASIL) CCTVM LTDA.</t>
+          <t>UBS BRASIL CCTVM S/A</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1582,13 +1582,13 @@
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44636</v>
+        <v>44648</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0028</v>
+        <v>0.0697</v>
       </c>
       <c r="H22" t="n">
-        <v>37.25</v>
+        <v>2.42</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1597,27 +1597,27 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>SBSP3</t>
+          <t>COGN3</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2022020200328368270001-1</t>
+          <t>2022021400330422700001-1</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>-612</v>
+        <v>-13253</v>
       </c>
       <c r="M22" t="n">
-        <v>-612</v>
+        <v>-4300</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>MIRAE ASSET WEALTH MANAGEMENT (BRASIL) CCTVM LTDA.</t>
+          <t>CM CAPITAL MARKETS CCTVM LTDA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1635,13 +1635,13 @@
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44636</v>
+        <v>44635</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0028</v>
+        <v>0.0177</v>
       </c>
       <c r="H23" t="n">
-        <v>37.25</v>
+        <v>7.17</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1650,27 +1650,27 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>SBSP3</t>
+          <t>CPLE6</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2022020200328368280001-1</t>
+          <t>2022020100328093740001-1</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>-463</v>
+        <v>-6093</v>
       </c>
       <c r="M23" t="n">
-        <v>-251</v>
+        <v>-6093</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>44592</v>
+        <v>44606</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CM CAPITAL MARKETS CCTVM LTDA</t>
+          <t>UBS BRASIL CCTVM S/A</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1688,13 +1688,13 @@
         </is>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44634</v>
+        <v>44648</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0733</v>
+        <v>0.0124</v>
       </c>
       <c r="H24" t="n">
-        <v>48.97</v>
+        <v>7.34</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1703,27 +1703,27 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>VIVT3</t>
+          <t>CPLE6</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2022013100327816840001-1</t>
+          <t>2022021400330422710001-1</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>-781</v>
+        <v>-9972</v>
       </c>
       <c r="M24" t="n">
-        <v>-781</v>
+        <v>-1707</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>44599</v>
+        <v>44601</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>CM CAPITAL MARKETS CCTVM LTDA</t>
+          <t>SANTANDER CCVM S/A</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1741,13 +1741,13 @@
         </is>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44641</v>
+        <v>44643</v>
       </c>
       <c r="G25" t="n">
-        <v>0.066</v>
+        <v>0.0036</v>
       </c>
       <c r="H25" t="n">
-        <v>49.67</v>
+        <v>15.83</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1756,27 +1756,27 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>VIVT3</t>
+          <t>CRFB3</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2022020700329215200001-1</t>
+          <t>2022020900329718330001-1</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>-5883</v>
+        <v>-5830</v>
       </c>
       <c r="M25" t="n">
-        <v>-1519</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>44568</v>
+        <v>44600</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1794,13 +1794,13 @@
         </is>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44608</v>
+        <v>44642</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0052</v>
+        <v>0.0035</v>
       </c>
       <c r="H26" t="n">
-        <v>30.37</v>
+        <v>27.29</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1809,72 +1809,3729 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>WEGE3</t>
+          <t>CSNA3</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2022010700323605340001-1</t>
+          <t>2022020800329442930001-1</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>-500</v>
+        <v>-5100</v>
       </c>
       <c r="M26" t="n">
-        <v>-500</v>
+        <v>-3200</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B27" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>UBS BRASIL CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0242</v>
+      </c>
+      <c r="H27" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>CVCB3</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>2022021400330422720001-1</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>-1763</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>44599</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>CM CAPITAL MARKETS CCTVM LTDA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0309</v>
+      </c>
+      <c r="H28" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>DXCO3</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2022020700329179030001-1</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>-990</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-990</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>UBS BRASIL CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0311</v>
+      </c>
+      <c r="H29" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>DXCO3</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>2022021400330422740001-1</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>-1998</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-510</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>UBS BRASIL CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="H30" t="n">
+        <v>40.54</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>EGIE3</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>2022021400330422830001-1</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>-337</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-337</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>UBS BRASIL CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="H31" t="n">
+        <v>40.54</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>EGIE3</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>2022021400330422910001-1</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>-2200</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-963</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>44595</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NECTON INVESTIMENTOS S.A. CVMC</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>44637</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="H32" t="n">
+        <v>34.02</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ELET3</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>2022020300328477830001-1</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>-2290</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-1800</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>UBS BRASIL CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="H33" t="n">
+        <v>33.24</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ELET6</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>2022021400330422800001-1</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>-2147</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>44599</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>UBS BRASIL CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0305</v>
+      </c>
+      <c r="H34" t="n">
+        <v>20.98</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ENBR3</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>2022020700329062090001-1</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>-1900</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>44575</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>UBS BRASIL CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>44615</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="H35" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ENEV3</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>2022011400324965090001-1</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>-100</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>44589</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>MERRILL LYNCH S/A CTVM</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>44631</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="H36" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ENEV3</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>2022012800327482540001-1</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>-13492</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-6200</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>UBS BRASIL CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="H37" t="n">
+        <v>23.96</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>EQTL3</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>2022021400330422810001-1</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>-15391</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-5100</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>44595</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NECTON INVESTIMENTOS S.A. CVMC</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>44637</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0305</v>
+      </c>
+      <c r="H38" t="n">
+        <v>19.66</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>FLRY3</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>2022020300328538660001-1</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>-3057</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>UBS BRASIL CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="H39" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>GOAU4</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>2022021400330422730001-1</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>-7136</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-3500</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>UBS BRASIL CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.1588</v>
+      </c>
+      <c r="H40" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>GOLL4</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>2022021400330422960001-1</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>-191</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-191</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>CM CAPITAL MARKETS CCTVM LTDA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H41" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>HAPV3</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2022021400328587030001-2</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>-2688</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-2688</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>44589</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>CM CAPITAL MARKETS CCTVM LTDA</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>44631</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H42" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>HAPV3</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>2022012800326950690001-2</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>-3500</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-3500</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>44589</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>MODAL DTVM LTDA</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>44631</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H43" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>HAPV3</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>2022012800327380720001-2</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>-17143</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-15812</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>CM CAPITAL MARKETS CCTVM LTDA</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="H44" t="n">
+        <v>30.93</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>HYPE3</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>2022020200328362540001-1</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>-9770</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>UBS BRASIL CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="H45" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>2022021400330422790001-1</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>-49178</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-23600</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>CM CAPITAL MARKETS CCTVM LTDA</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="H46" t="n">
+        <v>24.62</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ITUB4</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>2022013100327816930001-1</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>-81879</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-23900</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>SANTANDER CCVM S/A</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="H47" t="n">
+        <v>37.24</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>JBSS3</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>2022020900329718410001-1</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>-5329</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-5329</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>MIRAE ASSET WEALTH MANAGEMENT (BRASIL) CCTVM LTDA.</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="H48" t="n">
+        <v>36.56</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>JBSS3</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>2022011900325739450001-1</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>-15200</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-1171</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>44599</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>MIRAE ASSET WEALTH MANAGEMENT (BRASIL) CCTVM LTDA.</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0033</v>
+      </c>
+      <c r="H49" t="n">
+        <v>25.15</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>KLBN11</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>2022020700322809430001-2</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>-971</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-971</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>44599</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>MIRAE ASSET WEALTH MANAGEMENT (BRASIL) CCTVM LTDA.</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0033</v>
+      </c>
+      <c r="H50" t="n">
+        <v>25.15</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>KLBN11</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>2022020700322809450001-2</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>-394</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-394</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>44599</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>MIRAE ASSET WEALTH MANAGEMENT (BRASIL) CCTVM LTDA.</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0033</v>
+      </c>
+      <c r="H51" t="n">
+        <v>25.15</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>KLBN11</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>2022020700322809460001-2</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>-531</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-531</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>44599</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>MIRAE ASSET WEALTH MANAGEMENT (BRASIL) CCTVM LTDA.</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0033</v>
+      </c>
+      <c r="H52" t="n">
+        <v>25.15</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>KLBN11</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>2022020700322809470001-2</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>-8455</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-2204</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>UBS BRASIL CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.0039</v>
+      </c>
+      <c r="H53" t="n">
+        <v>25.43</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>LCAM3</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>2022021400330422840001-1</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>-3196</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>UBS BRASIL CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="H54" t="n">
+        <v>25.63</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>LREN3</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>2022021400330422990001-1</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>-21424</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-4900</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>MIRAE ASSET WEALTH MANAGEMENT (BRASIL) CCTVM LTDA.</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.0173</v>
+      </c>
+      <c r="H55" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>LWSA3</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>2022020200328195650001-1</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>-6300</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-2200</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>CM CAPITAL MARKETS CCTVM LTDA</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="H56" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>MGLU3</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2022013100327809070001-1</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>-2630</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-2630</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>CM CAPITAL MARKETS CCTVM LTDA</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.0102</v>
+      </c>
+      <c r="H57" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>MGLU3</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>2022012600327071690001-1</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>-1887</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-1887</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>CM CAPITAL MARKETS CCTVM LTDA</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.0102</v>
+      </c>
+      <c r="H58" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>MGLU3</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>2022012600327071960001-1</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>-2061</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-2061</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>CM CAPITAL MARKETS CCTVM LTDA</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.0102</v>
+      </c>
+      <c r="H59" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>MGLU3</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>2022012600327071970001-1</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>-5891</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-5891</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>UBS BRASIL CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H60" t="n">
+        <v>20.74</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>MRFG3</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>2022020800329443180001-1</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>-800</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>UBS BRASIL CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="H61" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>MRFG3</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>2022021400330423000001-1</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>-4300</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>UBS BRASIL CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.0067</v>
+      </c>
+      <c r="H62" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>MRVE3</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>2022021400330423100001-1</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>CM CAPITAL MARKETS CCTVM LTDA</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.0189</v>
+      </c>
+      <c r="H63" t="n">
+        <v>21.18</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>MULT3</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>2022013100327759160001-1</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>-2100</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>UBS BRASIL CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="H64" t="n">
+        <v>23.93</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>NTCO3</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>2022021400330423030001-1</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>-3300</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-3300</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>SANTANDER CCVM S/A</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="H65" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>NTCO3</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>2022020900329718340001-1</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>-2400</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>44573</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>MIRAE ASSET WEALTH MANAGEMENT (BRASIL) CCTVM LTDA.</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="n">
+        <v>44613</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="H66" t="n">
+        <v>19.27</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PCAR3</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>2022011200306843060001-2</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>-1600</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>UBS BRASIL CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="H67" t="n">
+        <v>36.84</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PETR3</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>2022021400330423040001-1</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>-17855</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-13500</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>CM CAPITAL MARKETS CCTVM LTDA</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="H68" t="n">
+        <v>33.24</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PETR4</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>2022013100327729240001-1</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>-20000</v>
+      </c>
+      <c r="M68" t="n">
+        <v>-20000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B69" s="2" t="n">
         <v>44593</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>KAPITALO KAPPA MASTER FIM</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>CM CAPITAL MARKETS CCTVM LTDA</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="n">
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="n">
         <v>44635</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G69" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="H69" t="n">
+        <v>32.42</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PETR4</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>2022020100327997150001-1</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>-42749</v>
+      </c>
+      <c r="M69" t="n">
+        <v>-2800</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>UBS BRASIL CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.0228</v>
+      </c>
+      <c r="H70" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PETZ3</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>2022021400330423080001-1</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>-3046</v>
+      </c>
+      <c r="M70" t="n">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>UBS BRASIL CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.0487</v>
+      </c>
+      <c r="H71" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>POSI3</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>2022021400330423010001-1</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>-500</v>
+      </c>
+      <c r="M71" t="n">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>CM CAPITAL MARKETS CCTVM LTDA</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.0267</v>
+      </c>
+      <c r="H72" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>RADL3</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>2022013100327729120001-1</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>-1807</v>
+      </c>
+      <c r="M72" t="n">
+        <v>-1807</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>CM CAPITAL MARKETS CCTVM LTDA</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.0267</v>
+      </c>
+      <c r="H73" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>RADL3</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>2022013100327729140001-1</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>-400</v>
+      </c>
+      <c r="M73" t="n">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>UBS BRASIL CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0235</v>
+      </c>
+      <c r="H74" t="n">
+        <v>22.33</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>RADL3</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>2022021400330422880001-1</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>-8687</v>
+      </c>
+      <c r="M74" t="n">
+        <v>-3093</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>UBS BRASIL CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="H75" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>RAIL3</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>2022021400330423170001-1</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>-12731</v>
+      </c>
+      <c r="M75" t="n">
+        <v>-6100</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>CM CAPITAL MARKETS CCTVM LTDA</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H76" t="n">
+        <v>47.16</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>RDOR3</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>2022021000329992110001-1</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>-100</v>
+      </c>
+      <c r="M76" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>44599</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>CM CAPITAL MARKETS CCTVM LTDA</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H77" t="n">
+        <v>45.36</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>RDOR3</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>2022020700329256180001-1</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>-8500</v>
+      </c>
+      <c r="M77" t="n">
+        <v>-2700</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>UBS BRASIL CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0272</v>
+      </c>
+      <c r="H78" t="n">
+        <v>57.48</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>RENT3</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>2022021400330423130001-1</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>-3140</v>
+      </c>
+      <c r="M78" t="n">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>BTG PACTUAL CTVM S/A</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0178</v>
+      </c>
+      <c r="H79" t="n">
+        <v>32.81</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>SANB11</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>2022020200328154730001-1</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>-7962</v>
+      </c>
+      <c r="M79" t="n">
+        <v>-1800</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>MIRAE ASSET WEALTH MANAGEMENT (BRASIL) CCTVM LTDA.</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="H80" t="n">
+        <v>37.25</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>SBSP3</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>2022020200328368000001-1</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>-36</v>
+      </c>
+      <c r="M80" t="n">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>MIRAE ASSET WEALTH MANAGEMENT (BRASIL) CCTVM LTDA.</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="H81" t="n">
+        <v>37.25</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>SBSP3</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>2022020200328368010001-1</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>-801</v>
+      </c>
+      <c r="M81" t="n">
+        <v>-801</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>MIRAE ASSET WEALTH MANAGEMENT (BRASIL) CCTVM LTDA.</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="H82" t="n">
+        <v>37.25</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>SBSP3</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>2022020200328368270001-1</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>-612</v>
+      </c>
+      <c r="M82" t="n">
+        <v>-612</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>MIRAE ASSET WEALTH MANAGEMENT (BRASIL) CCTVM LTDA.</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="H83" t="n">
+        <v>37.25</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>SBSP3</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>2022020200328368280001-1</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>-463</v>
+      </c>
+      <c r="M83" t="n">
+        <v>-251</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>UBS BRASIL CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.0035</v>
+      </c>
+      <c r="H84" t="n">
+        <v>25.65</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>SULA11</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>2022021400330423070001-1</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>-2741</v>
+      </c>
+      <c r="M84" t="n">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>44585</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>UBS BRASIL CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="H85" t="n">
+        <v>60.04</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>SUZB3</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>2022012400326416830001-1</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>-14000</v>
+      </c>
+      <c r="M85" t="n">
+        <v>-3600</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>CM CAPITAL MARKETS CCTVM LTDA</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0148</v>
+      </c>
+      <c r="H86" t="n">
+        <v>37.69</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>TAEE11</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>2022013100327729180001-1</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>-200</v>
+      </c>
+      <c r="M86" t="n">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>SAFRA CORRETORA DE VALORES E CAMBIO LTDA</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.0147</v>
+      </c>
+      <c r="H87" t="n">
+        <v>37.69</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>TAEE11</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>2022021000317791910001-2</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>-2909</v>
+      </c>
+      <c r="M87" t="n">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>UBS BRASIL CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="H88" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>TIMS3</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>2022021400330422940001-1</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>-8133</v>
+      </c>
+      <c r="M88" t="n">
+        <v>-4100</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>UBS BRASIL CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.0078</v>
+      </c>
+      <c r="H89" t="n">
+        <v>27.96</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>TOTS3</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>2022021400330423110001-1</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>-4987</v>
+      </c>
+      <c r="M89" t="n">
+        <v>-2600</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>44599</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>UBS BRASIL CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F90" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="H90" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>USIM5</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>2022020700329062150001-1</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>-23700</v>
+      </c>
+      <c r="M90" t="n">
+        <v>-2600</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>UBS BRASIL CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="H91" t="n">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VALE3</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>2022021400330422890001-1</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>-11247</v>
+      </c>
+      <c r="M91" t="n">
+        <v>-11247</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>44574</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>GUIDE INVESTIMENTOS SA CORRETORA DE VALORES</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="n">
+        <v>44614</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="H92" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VBBR3</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>2022011300297511390001-2</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>-8000</v>
+      </c>
+      <c r="M92" t="n">
+        <v>-5600</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>44599</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>CM CAPITAL MARKETS CCTVM LTDA</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F93" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="H93" t="n">
+        <v>49.67</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VIVT3</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>2022020700329215210001-1</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>-4489</v>
+      </c>
+      <c r="M93" t="n">
+        <v>-2200</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>44593</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>CM CAPITAL MARKETS CCTVM LTDA</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="n">
+        <v>44635</v>
+      </c>
+      <c r="G94" t="n">
         <v>0.004</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H94" t="n">
         <v>32.13</v>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>TD</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
         <is>
           <t>WEGE3</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>2022020100327997110001-1</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>-41082</v>
-      </c>
-      <c r="M27" t="n">
+      <c r="L94" t="n">
+        <v>-15982</v>
+      </c>
+      <c r="M94" t="n">
         <v>-7400</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>MIRAE ASSET WEALTH MANAGEMENT (BRASIL) CCTVM LTDA.</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F95" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.0487</v>
+      </c>
+      <c r="H95" t="n">
+        <v>22.48</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>YDUQ3</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>2022020200328213410001-1</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>-700</v>
+      </c>
+      <c r="M95" t="n">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>KAPITALO KAPPA MASTER FIM</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>UBS BRASIL CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F96" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.0469</v>
+      </c>
+      <c r="H96" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>YDUQ3</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>2022012600326934190001-1</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>-2674</v>
+      </c>
+      <c r="M96" t="n">
+        <v>-800</v>
       </c>
     </row>
   </sheetData>

--- a/Aluguel/devolucoes/devol.xlsx
+++ b/Aluguel/devolucoes/devol.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Data</t>
   </si>
@@ -50,12 +50,33 @@
   </si>
   <si>
     <t>Quantidade</t>
+  </si>
+  <si>
+    <t>KAPITALO KAPPA MASTER FIM</t>
+  </si>
+  <si>
+    <t>SANTANDER CCVM S/A</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
+    <t>2022042500344500330001-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -108,11 +129,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,13 +429,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:M1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:13">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,6 +471,47 @@
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44676</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2">
+        <v>44714</v>
+      </c>
+      <c r="G2">
+        <v>0.0231</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2">
+        <v>-100000</v>
+      </c>
+      <c r="M2">
+        <v>-8528</v>
       </c>
     </row>
   </sheetData>
